--- a/src/backend/template/metaExcelTJ_template.xlsx
+++ b/src/backend/template/metaExcelTJ_template.xlsx
@@ -184,7 +184,7 @@
     <t>&lt;%=video.duration%&gt;</t>
   </si>
   <si>
-    <t>&lt;%=(video.size/1000000).toFixed(2)+'G'%&gt;</t>
+    <t>&lt;%=(video.size/1024/1024).toFixed(2)+'G'%&gt;</t>
   </si>
   <si>
     <t>是</t>
@@ -332,30 +332,6 @@
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -369,6 +345,13 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color indexed="62"/>
       <name val="宋体"/>
@@ -382,6 +365,62 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="62"/>
@@ -389,21 +428,22 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="36"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -417,59 +457,19 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color indexed="42"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
-      <color indexed="36"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -502,19 +502,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="47"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,13 +544,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="49"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,19 +562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="53"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="44"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,13 +574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="54"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +592,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
+        <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,15 +933,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thick">
         <color indexed="49"/>
       </bottom>
@@ -980,17 +971,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thick">
         <color indexed="22"/>
@@ -1007,6 +987,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -1024,148 +1024,148 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1657,7 +1657,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>

--- a/src/backend/template/metaExcelTJ_template.xlsx
+++ b/src/backend/template/metaExcelTJ_template.xlsx
@@ -163,7 +163,7 @@
     <t>&lt;%forRBegin bundle,i in _data_%&gt;&lt;%forRow video,m in bundle.videos%&gt;&lt;%=m+1%&gt;</t>
   </si>
   <si>
-    <t>&lt;%=i&lt;40?bundle.name+"(小水滴课堂)":bundle.name%&gt;</t>
+    <t>&lt;%=bundle.name%&gt;</t>
   </si>
   <si>
     <t>&lt;%=video.name%&gt;</t>
@@ -337,6 +337,84 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="42"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color indexed="63"/>
@@ -345,57 +423,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="42"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -403,13 +430,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="52"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -421,13 +442,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color indexed="36"/>
@@ -436,28 +450,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="52"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="42"/>
+      <sz val="15"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -502,19 +502,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,31 +532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="54"/>
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +556,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="57"/>
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,18 +592,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="27"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="10"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -915,6 +915,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="63"/>
       </left>
@@ -932,6 +971,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color indexed="49"/>
@@ -953,219 +1021,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="23"/>
-      </left>
-      <right style="thin">
-        <color indexed="23"/>
-      </right>
-      <top style="thin">
-        <color indexed="23"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="23"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="49"/>
-      </top>
-      <bottom style="double">
-        <color indexed="49"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="32" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1657,7 +1657,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75"/>
